--- a/TableToJsonlConverterTests/TestFiles/Excel/test_base_2_2_3.xlsx
+++ b/TableToJsonlConverterTests/TestFiles/Excel/test_base_2_2_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Develop\TableToJsonlConverter\TableToJsonlConverterTests\testfile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Develop\TableToJsonlConverter\TableToJsonlConverterTests\TestFiles\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A163CC-B5CA-4A09-B6BD-CDD3B383F03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95FB322-CABA-4FAA-AEBF-B6B7B9BEB792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10890" yWindow="1605" windowWidth="16710" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="4440" windowWidth="16710" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
   <si>
     <t>Arow1</t>
     <phoneticPr fontId="1"/>
@@ -1245,6 +1245,10 @@
   </si>
   <si>
     <t>header4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Brow11</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1573,7 +1577,7 @@
   <dimension ref="B2:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1736,6 +1740,9 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
+      <c r="C13" t="s">
+        <v>403</v>
+      </c>
       <c r="D13" t="s">
         <v>209</v>
       </c>
